--- a/backend/core/management/data/areasAll.xlsx
+++ b/backend/core/management/data/areasAll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\q8tasweet2\backend\core\management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C770844-43CF-4C23-8B8A-4AFD8FB0554C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED0BC1-3B0A-411E-9818-495B98B22BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Governate" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="CommitteeGroups" sheetId="4" r:id="rId4"/>
     <sheet name="Blocks" sheetId="3" r:id="rId5"/>
     <sheet name="Committees" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="861">
   <si>
     <t>id</t>
   </si>
@@ -2021,123 +2021,39 @@
     <t>اصلية</t>
   </si>
   <si>
-    <t>الأحمدي,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة ابن ماجد الابتدائية للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> فرعية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,خ,د,ذ,ر,ز</t>
-  </si>
-  <si>
     <t>فرعية</t>
   </si>
   <si>
-    <t xml:space="preserve"> س,ش,ص,ض,ط,ظ,ع,غ,ف</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ق,ك,ل,م,ن,ه,و,ي</t>
-  </si>
-  <si>
-    <t>هدية,</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
     <t xml:space="preserve"> مدرسة عبد الرحمن بن أبي بكر المتوسطه للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> س,ش,ص,ض,ف,ن</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ط,ظ,ع,غ,ق,ك,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
     <t xml:space="preserve"> مدرسة زينب بنت خزيمه المتوسطه للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> خ,د,ذ,ر,ز,س,ش,ص,ض,ط,ظ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,غ,ف,ق,ك,ن</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ل,م,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,خ,د,ذ,ر,ز,ش,ص</t>
-  </si>
-  <si>
-    <t>الفنطاس والمهبولة,</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
     <t xml:space="preserve"> مدرسة أحمد بن محمد الفارسي المتوسطه للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> س,ض,ط,ظ,ع</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> غ,ف,ق,ك,ل,م,ن,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t>أبوحليفة,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,خ,د,ذ,ر</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
     <t>مدرسة فاطمه عبدالله الحقان الابتدائية للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ز,س,ش,ص,ض,ط,ظ,ع,غ,ف,ق,ك,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,ن,ه,و,ي</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ا</t>
   </si>
   <si>
-    <t>الفنيطيس,صباح السالم,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ب,ت,ث,ج,د,ذ,ز</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ح,ر</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> خ,ش,ص,ض,ط</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,ه,و</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ظ,غ,ق,ك,ل,ن,ي</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ع</t>
   </si>
   <si>
@@ -2147,501 +2063,87 @@
     <t xml:space="preserve"> م</t>
   </si>
   <si>
-    <t xml:space="preserve"> ب,ت,ث,ج</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
-    <t xml:space="preserve"> ا,ص</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ح,د</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> خ,ذ,ر</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ز,ش</t>
-  </si>
-  <si>
     <t xml:space="preserve"> س</t>
   </si>
   <si>
-    <t xml:space="preserve"> ض,ط,ظ,ع</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> غ,ق,ك,ل,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ف,ه</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ن</t>
   </si>
   <si>
-    <t xml:space="preserve"> ا,ب,ت,ح</t>
-  </si>
-  <si>
-    <t>الرقة,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ثانوية سالم المبارك الصباح للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ث,ج,خ,د,ذ,ر,ز,ش,ص,ض,ط,ظ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,غ,ن</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ف,ق,ك,ل,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ص,ه,و,ي</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة غزيه بنت جابر الابتدائية للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ا,ب</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ت,ث,ج,ح,خ,د,ذ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ر,ز,س,ض,ط,ظ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ش,ع</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> غ,ف,ق,ك,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث</t>
-  </si>
-  <si>
-    <t>الصباحية,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> المعهد الديني الثانوي للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ج,ح,د,ذ,ر,ز</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> خ,ش,ص,ض,ط,ظ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,غ,ق,ك,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ن,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ز,ص,ض,ط,ظ,ه</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة عفراء بنت عبيد الابتدائية للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ب,ت,ث,ج,خ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> د,ذ,س</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ش,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,غ,ق,ك</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ف,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,د,ذ,ر</t>
-  </si>
-  <si>
-    <t>الظهر,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ثانوية هارون الرشيد للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> خ,ز,س,ش,ص,ض,ط,ظ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> غ,ف,ق,ك,ل,ن,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,خ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ثانوية معاذة الغفارية للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ح,د,ذ,ر,ز,ش</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,ص,ض,ط,ظ,ف</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,غ,ق,ك,ل,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ن,ه</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,د,ذ,ر,ز</t>
-  </si>
-  <si>
-    <t>القرين,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة حصه الحنيف المتوسطه للبنات - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ح,خ,ش,ص,ن</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,ض,ط,ظ,غ,ف,ق,ك,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,خ,د,ذ,ر,ز,س,ش,ص,ض,ط,ظ,غ,ف,ق,ك,ل</t>
-  </si>
-  <si>
-    <t>ابو فطيرة,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,ن,ه,و,ي,ع</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ج</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة حسين العسعوسي الابتدائية للبنين - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ب,ت,ث,ح,خ,د,ذ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ر,ز,س</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ش,ص,ض,ط,ظ,ع,غ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ف,ق,ك,ل,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,خ,د,ذ,ر,ز,س,ش,ص,ض,ط,ظ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,غ,ف,ق,ك,ل,م,ن,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج</t>
-  </si>
-  <si>
-    <t>العدان,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة ابن زهير الأندلسي المتوسطة للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ح,خ,د,ذ,ر,ز</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,ش,ص,ض,ط,ظ,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> غ,ف,ق,ك,ل,ن,ه,و</t>
-  </si>
-  <si>
-    <t>المسايل,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة العدان الابتدائية للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ب,ت,ث,ج,ح,خ,د</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ذ,ر,ز,ش,ص,ض,ط,ظ,غ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,ع</t>
-  </si>
-  <si>
-    <t>القصور,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة عائشة الشريف الابتدائية للبنات - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> س,ش,ص,ض,ط,ظ,غ,ق,ك,ل,ن</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ف,ه,و,ي</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة هيلة بو طيبان المتوسطة للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ب,ت,ث,ج,ح,خ,د,ذ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ر,ز,ش,ص,ض,ط,ظ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,ع,و</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ن,ه,ي</t>
-  </si>
-  <si>
-    <t>مبارك الكبير,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ثانوية ليلى الغفارية للبنات - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ج,ح,ق,ك,ل,ه,و</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> خ,ف</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> د,ذ,ر,ز,س,ش,ص,ض,ط,ظ,غ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,ن,ي</t>
-  </si>
-  <si>
-    <t>العقيلة,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,م,ن,ه,و,ي</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة جعفر بن أبي طالب المتوسطة للبنين - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ب,ت,ث,ج,ح,خ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> د,ذ,ر,ز,ص,ض,ط,ظ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,ش</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,خ,د,ذ,ر,ز,س,ش,ص,ض,ط</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ظ,ع,غ,ف,ق,ك,ل,م,ن,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ح,خ</t>
-  </si>
-  <si>
-    <t>فهد الاحمد,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ثانوية بلاط الشهداء للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ت,ث,ج,د,ذ,ر,ز,س,ش,ص,ض,ط,ظ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة سودة بنت مالك المتوسطة للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ت,ث,ج,د,ذ,ر,ز,س</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ش,ص,ض,ط,ظ,ع,غ,ف</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ق,ك,ل,ن,ه</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,و,ي</t>
-  </si>
-  <si>
-    <t>جابر العلي,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ثانوية عبدالله الاحمد الصباح للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ح,خ,د,ذ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ر,ز,س,ش</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ص,ض,ط,ظ,غ,ق,ك,ل,ن</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ف,ه,و</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ب,ت,ث,ح,خ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ج,د,ذ,ر,ز</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ص,ض,ط,ظ,ع,غ,ق,ك,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ن,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,خ,د,ذ</t>
-  </si>
-  <si>
-    <t>الفحيحيل,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة المعري المتوسطة للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ر,ز,س,ش,ص,ض,ط,ظ,ف</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,ن</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> غ,ق,ك,ل,م,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> خ,د,ذ,ر,ز,س,ش</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ص,ض,ط,ظ,ع,غ,ف,ق,ك,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,و</t>
-  </si>
-  <si>
-    <t>المنقف,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة سيد ياسين الطبطبائي المتوسطه للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ز,س,ش,ص,ض,ط,ظ,غ,ف,ق,ك,ل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,ن,ه</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ب,ت,ث,ج,ح,خ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة المنقف الابتدائية للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> د,ذ,ر,ز,س,ش,ص,ض</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ط,ظ,ع,غ,ف,ق,ك,ل,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> م,ن</t>
-  </si>
-  <si>
-    <t>علي صباح السالم,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ح,خ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> د,ذ,ر,ز,ش,ص,ض,ط,ظ,غ,ق,ك,ل,ه,و,ي</t>
-  </si>
-  <si>
-    <t>علي صباح السالم,الوفرة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ا,ت,ث</t>
-  </si>
-  <si>
     <t xml:space="preserve"> مدرسة الشعيبة الابتدائية للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ب,ج,ح,خ,د</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ذ,ر,ز,ش,ص,ض</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> س,ط,ظ</t>
-  </si>
-  <si>
-    <t>علي صباح السالم,الزور,الوفرة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,غ,ف,ق,ك</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ل,ه,و,ي</t>
-  </si>
-  <si>
-    <t>صباح الاحمد,</t>
-  </si>
-  <si>
     <t>117</t>
   </si>
   <si>
     <t xml:space="preserve"> ثانوية أيوب حسين الأيوب للبنين - ذكور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ح,خ,د,ذ,ز,ش</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ر,س</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ص,ف</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ض,ط,ظ,غ,ق,ك,ل,ن,ه,و,ي</t>
-  </si>
-  <si>
-    <t>صباح الاحمد,الخيران السكنية,الخيران</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ثانوية جمانة بنت الحسن للبنات - اناث</t>
   </si>
   <si>
-    <t xml:space="preserve"> ت,ث,ج,ح,خ,د,ذ,ش</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ر,ز,س,ص</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ض,ط,ظ,غ,ق,ك,ل,ه,و,ي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ع,ف</t>
-  </si>
-  <si>
-    <t>صباح الاحمد,الخيران السكنية</t>
-  </si>
-  <si>
     <t xml:space="preserve">  مدرسة عبد الوهاب الفارس الابتدائية للبنين - ذكور</t>
   </si>
   <si>
@@ -2657,15 +2159,6 @@
     <t xml:space="preserve">  مدرسة عبدالله بن الزبير المتوسطة للبنين - ذكور</t>
   </si>
   <si>
-    <t>ا,ب,ت,ث,ج,ح,خ,د,ذ,ر,ز,س,ش,ص</t>
-  </si>
-  <si>
-    <t>ض,ط,ظ,ع,غ,ف</t>
-  </si>
-  <si>
-    <t>ق,ك,ل,م,ن,ه,و,ي</t>
-  </si>
-  <si>
     <t>committee_group</t>
   </si>
   <si>
@@ -2673,6 +2166,462 @@
   </si>
   <si>
     <t>election_id</t>
+  </si>
+  <si>
+    <t>ابو فطيرة</t>
+  </si>
+  <si>
+    <t>جابر العلي</t>
+  </si>
+  <si>
+    <t>علي صباح السالم</t>
+  </si>
+  <si>
+    <t>الفنطاس، المهبولة</t>
+  </si>
+  <si>
+    <t>الفنيطيس، صباح السالم</t>
+  </si>
+  <si>
+    <t>صباح الاحمد، الخيران السكنيةالخيران</t>
+  </si>
+  <si>
+    <t>صباح الاحمد، الخيران السكنية</t>
+  </si>
+  <si>
+    <t>علي صباح السالم، الوفرة</t>
+  </si>
+  <si>
+    <t>علي صباح السالم، الزور، الوفرة</t>
+  </si>
+  <si>
+    <t>ا، ب، ت، ث، ج، ح، خ، د، ذ، ر، ز، س، ش، ص</t>
+  </si>
+  <si>
+    <t>ض، ط، ظ، ع، غ، ف</t>
+  </si>
+  <si>
+    <t>ق، ك، ل، م، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، خ، د، ذ، ر، ز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ش، ص، ض، ط، ظ، ع، غ، ف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ق، ك، ل، م، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ش، ص، ض، ف، ن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ط، ظ، ع، غ، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خ، د، ذ، ر، ز، س، ش، ص، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، غ، ف، ق، ك، ن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ل، م، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، خ، د، ذ، ر، ز، ش، ص</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ض، ط، ظ، ع</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غ، ف، ق، ك، ل، م، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، خ، د، ذ، ر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ز، س، ش، ص، ض، ط، ظ، ع، غ، ف، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ت، ث، ج، د، ذ، ز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ح، ر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خ، ش، ص، ض، ط</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ه، و</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ظ، غ، ق، ك، ل، ن، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ت، ث، ج</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ص</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ح، د</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خ، ذ، ر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ز، ش</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ض، ط، ظ، ع</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غ، ق، ك، ل، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ف، ه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ح</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ث، ج، خ، د، ذ، ر، ز، ش، ص، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، غ، ن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ف، ق، ك، ل، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ص، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ت، ث، ج، ح، خ، د، ذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ر، ز، س، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ش، ع</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غ، ف، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ج، ح، د، ذ، ر، ز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خ، ش، ص، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، غ، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ز، ص، ض، ط، ظ، ه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ت، ث، ج، خ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> د، ذ، س</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ش، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، غ، ق، ك</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ف، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، د، ذ، ر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خ، ز، س، ش، ص، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غ، ف، ق، ك، ل، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، خ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ح، د، ذ، ر، ز، ش</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ص، ض، ط، ظ، ف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، غ، ق، ك، ل، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ن، ه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، د، ذ، ر، ز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ح، خ، ش، ص، ن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ض، ط، ظ، غ، ف، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، خ، د، ذ، ر، ز، س، ش، ص، ض، ط، ظ، غ، ف، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، ن، ه، و، ي، ع</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ج</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ت، ث، ح، خ، د، ذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ر، ز، س</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ش، ص، ض، ط، ظ، ع، غ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ف، ق، ك، ل، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، خ، د، ذ، ر، ز، س، ش، ص، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، غ، ف، ق، ك، ل، م، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ح، خ، د، ذ، ر، ز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ش، ص، ض، ط، ظ، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غ، ف، ق، ك، ل، ن، ه، و</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ت، ث، ج، ح، خ، د</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ذ، ر، ز، ش، ص، ض، ط، ظ، غ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ع</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ش، ص، ض، ط، ظ، غ، ق، ك، ل، ن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ف، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ت، ث، ج، ح، خ، د، ذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ر، ز، ش، ص، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ع، و</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ن، ه، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ج، ح، ق، ك، ل، ه، و</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خ، ف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> د، ذ، ر، ز، س، ش، ص، ض، ط، ظ، غ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، ن، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، م، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ت، ث، ج، ح، خ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> د، ذ، ر، ز، ص، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ش</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، خ، د، ذ، ر، ز، س، ش، ص، ض، ط</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ظ، ع، غ، ف، ق، ك، ل، م، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ح، خ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ت، ث، ج، د، ذ، ر، ز، س، ش، ص، ض، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ت، ث، ج، د، ذ، ر، ز، س</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ش، ص، ض، ط، ظ، ع، غ، ف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ق، ك، ل، ن، ه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ح، خ، د، ذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ر، ز، س، ش</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ص، ض، ط، ظ، غ، ق، ك، ل، ن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ف، ه، و</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ت، ث، ح، خ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ج، د، ذ، ر، ز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ص، ض، ط، ظ، ع، غ، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ن، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، خ، د، ذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ر، ز، س، ش، ص، ض، ط، ظ، ف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، ن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غ، ق، ك، ل، م، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خ، د، ذ، ر، ز، س، ش</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ص، ض، ط، ظ، ع، غ، ف، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، و</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ز، س، ش، ص، ض، ط، ظ، غ، ف، ق، ك، ل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، ن، ه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ب، ت، ث، ج، ح، خ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> د، ذ، ر، ز، س، ش، ص، ض</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ط، ظ، ع، غ، ف، ق، ك، ل، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> م، ن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ح، خ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> د، ذ، ر، ز، ش، ص، ض، ط، ظ، غ، ق، ك، ل، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ا، ت، ث</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ب، ج، ح، خ، د</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ذ، ر، ز، ش، ص، ض</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> س، ط، ظ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، غ، ف، ق، ك</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ل، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ح، خ، د، ذ، ز، ش</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ر، س</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ص، ف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ض، ط، ظ، غ، ق، ك، ل، ن، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ت، ث، ج، ح، خ، د، ذ، ش</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ر، ز، س، ص</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ض، ط، ظ، غ، ق، ك، ل، ه، و، ي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ع، ف</t>
+  </si>
+  <si>
+    <t>كل الحروف</t>
   </si>
 </sst>
 </file>
@@ -3337,6 +3286,18 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3381,16 +3342,6 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3461,11 +3412,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11E-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3473,11 +3424,11 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11E-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3858,9 +3809,9 @@
     <tableColumn id="2" xr3:uid="{1FDF12BB-ACF5-48F2-BEAF-29C032C8A4E7}" name="serial" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{F6A8E13B-AD6F-4DA9-86D3-7BC47AFE6A18}" name="type"/>
     <tableColumn id="4" xr3:uid="{8C637E3B-838F-4E17-8D90-0D5508A57367}" name="letters"/>
-    <tableColumn id="5" xr3:uid="{72AA5EAF-F494-4B0A-9267-8AC76A2804A0}" name="areas" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{7CB2A5C9-731E-496D-BD24-D1C29E25FCD9}" name="committee_group" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C3AE5BF2-808F-4040-870F-5DA42F7261C1}" name="committee_group_name" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{72AA5EAF-F494-4B0A-9267-8AC76A2804A0}" name="areas" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{7CB2A5C9-731E-496D-BD24-D1C29E25FCD9}" name="committee_group" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C3AE5BF2-808F-4040-870F-5DA42F7261C1}" name="committee_group_name" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5948,11 +5899,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6891,8 +6842,108 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId4" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="5122" r:id="rId4" name="Control 2">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId4" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5123" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5123" r:id="rId6" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5124" r:id="rId7" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5124" r:id="rId7" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId8" name="Control 5">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>781050</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId8" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5126" r:id="rId10" name="Control 6">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6911,107 +6962,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId4" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId6" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>781050</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5125" r:id="rId6" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5124" r:id="rId8" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId10" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5123" r:id="rId10" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId11" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId11" name="Control 2"/>
+        <control shapeId="5126" r:id="rId10" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7022,7 +6973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636A5C86-787C-4054-A552-90094BC29690}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -7047,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>877</v>
+        <v>708</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17436,8 +17387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE4196E-656C-4ECC-978B-74BEE2035043}">
   <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:A73"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17445,7 +17396,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.7109375" bestFit="1" customWidth="1"/>
@@ -17453,7 +17404,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>877</v>
+        <v>708</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -17471,10 +17422,10 @@
         <v>658</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>875</v>
+        <v>706</v>
       </c>
       <c r="H1" t="s">
-        <v>876</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -17491,16 +17442,16 @@
         <v>659</v>
       </c>
       <c r="E2" t="s">
-        <v>872</v>
+        <v>718</v>
       </c>
       <c r="F2" t="s">
-        <v>660</v>
+        <v>206</v>
       </c>
       <c r="G2" s="15">
         <v>85</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -17514,19 +17465,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>873</v>
+        <v>719</v>
       </c>
       <c r="F3" t="s">
-        <v>660</v>
+        <v>206</v>
       </c>
       <c r="G3" s="15">
         <v>85</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -17540,19 +17491,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>874</v>
+        <v>720</v>
       </c>
       <c r="F4" t="s">
-        <v>660</v>
+        <v>206</v>
       </c>
       <c r="G4" s="15">
         <v>85</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -17569,16 +17520,16 @@
         <v>659</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="F5" t="s">
-        <v>660</v>
+        <v>206</v>
       </c>
       <c r="G5" s="16">
         <v>86</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -17592,19 +17543,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
       <c r="F6" t="s">
-        <v>660</v>
+        <v>206</v>
       </c>
       <c r="G6" s="16">
         <v>86</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -17618,19 +17569,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>666</v>
+        <v>723</v>
       </c>
       <c r="F7" t="s">
-        <v>660</v>
+        <v>206</v>
       </c>
       <c r="G7" s="16">
         <v>86</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -17647,16 +17598,16 @@
         <v>659</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>663</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -17670,19 +17621,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>670</v>
+        <v>724</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>667</v>
+        <v>499</v>
       </c>
       <c r="G9" s="15">
         <v>87</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -17696,19 +17647,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>671</v>
+        <v>725</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>667</v>
+        <v>499</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -17722,19 +17673,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>672</v>
+        <v>726</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>667</v>
+        <v>499</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -17751,16 +17702,16 @@
         <v>659</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>673</v>
+        <v>727</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>667</v>
+        <v>499</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -17774,19 +17725,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>674</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -17800,19 +17751,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>674</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -17826,19 +17777,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>674</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -17855,16 +17806,16 @@
         <v>659</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -17878,19 +17829,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>683</v>
+        <v>732</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -17904,19 +17855,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -17930,19 +17881,19 @@
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>685</v>
+        <v>860</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>686</v>
+        <v>505</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -17959,16 +17910,16 @@
         <v>659</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>687</v>
+        <v>734</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -17982,19 +17933,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -18008,19 +17959,19 @@
         <v>21</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -18034,19 +17985,19 @@
         <v>22</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>685</v>
+        <v>860</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>686</v>
+        <v>505</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -18063,16 +18014,16 @@
         <v>659</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G24" s="16">
         <v>91</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -18086,19 +18037,19 @@
         <v>24</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G25" s="16">
         <v>91</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -18112,19 +18063,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>695</v>
+        <v>738</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G26" s="16">
         <v>91</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -18138,19 +18089,19 @@
         <v>26</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G27" s="16">
         <v>91</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -18164,19 +18115,19 @@
         <v>27</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>697</v>
+        <v>740</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G28" s="16">
         <v>91</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -18190,19 +18141,19 @@
         <v>28</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>698</v>
+        <v>741</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G29" s="16">
         <v>91</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -18216,19 +18167,19 @@
         <v>29</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G30" s="16">
         <v>91</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -18242,19 +18193,19 @@
         <v>30</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G31" s="16">
         <v>91</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -18268,19 +18219,19 @@
         <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G32" s="16">
         <v>91</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -18294,19 +18245,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G33" s="16">
         <v>91</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -18320,19 +18271,19 @@
         <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G34" s="16">
         <v>91</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -18346,19 +18297,19 @@
         <v>34</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G35" s="16">
         <v>91</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>867</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -18375,16 +18326,16 @@
         <v>659</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>702</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -18398,19 +18349,19 @@
         <v>36</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -18424,19 +18375,19 @@
         <v>37</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -18450,19 +18401,19 @@
         <v>38</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -18476,19 +18427,19 @@
         <v>39</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>706</v>
+        <v>745</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -18502,19 +18453,19 @@
         <v>40</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>707</v>
+        <v>746</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G41" s="15">
         <v>92</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -18528,19 +18479,19 @@
         <v>41</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G42" s="15">
         <v>92</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -18554,19 +18505,19 @@
         <v>42</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G43" s="15">
         <v>92</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -18580,19 +18531,19 @@
         <v>43</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>710</v>
+        <v>748</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G44" s="15">
         <v>92</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -18606,19 +18557,19 @@
         <v>44</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G45" s="15">
         <v>92</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -18632,19 +18583,19 @@
         <v>45</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>711</v>
+        <v>749</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G46" s="15">
         <v>92</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -18658,19 +18609,19 @@
         <v>46</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G47" s="15">
         <v>92</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -18684,19 +18635,19 @@
         <v>47</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G48" s="15">
         <v>92</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -18710,19 +18661,19 @@
         <v>48</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="G49" s="15">
         <v>92</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>868</v>
+        <v>702</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -18739,16 +18690,16 @@
         <v>659</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G50" s="15">
         <v>93</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -18762,19 +18713,19 @@
         <v>50</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G51" s="15">
         <v>93</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -18788,19 +18739,19 @@
         <v>51</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G52" s="15">
         <v>93</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -18814,19 +18765,19 @@
         <v>52</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G53" s="15">
         <v>93</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -18840,19 +18791,19 @@
         <v>53</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G54" s="15">
         <v>93</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -18866,19 +18817,19 @@
         <v>54</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G55" s="15">
         <v>93</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -18895,16 +18846,16 @@
         <v>659</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G56" s="15">
         <v>94</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -18918,19 +18869,19 @@
         <v>56</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G57" s="15">
         <v>94</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -18944,19 +18895,19 @@
         <v>57</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G58" s="15">
         <v>94</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -18970,19 +18921,19 @@
         <v>58</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>723</v>
+        <v>757</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G59" s="15">
         <v>94</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -18996,19 +18947,19 @@
         <v>59</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>724</v>
+        <v>758</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G60" s="15">
         <v>94</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -19022,19 +18973,19 @@
         <v>60</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G61" s="15">
         <v>94</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -19048,19 +18999,19 @@
         <v>61</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G62" s="15">
         <v>94</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -19074,19 +19025,19 @@
         <v>62</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>714</v>
+        <v>218</v>
       </c>
       <c r="G63" s="15">
         <v>94</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -19103,16 +19054,16 @@
         <v>659</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G64" s="15">
         <v>95</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -19126,19 +19077,19 @@
         <v>64</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G65" s="15">
         <v>95</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -19152,19 +19103,19 @@
         <v>65</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G66" s="15">
         <v>95</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -19178,19 +19129,19 @@
         <v>66</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G67" s="15">
         <v>95</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -19204,19 +19155,19 @@
         <v>67</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G68" s="15">
         <v>95</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -19230,19 +19181,19 @@
         <v>68</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G69" s="15">
         <v>95</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -19256,19 +19207,19 @@
         <v>69</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G70" s="15">
         <v>95</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -19282,19 +19233,19 @@
         <v>70</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G71" s="15">
         <v>95</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -19308,19 +19259,19 @@
         <v>71</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G72" s="15">
         <v>95</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -19334,19 +19285,19 @@
         <v>72</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G73" s="15">
         <v>95</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -19363,16 +19314,16 @@
         <v>659</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G74" s="15">
         <v>96</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -19386,19 +19337,19 @@
         <v>74</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G75" s="15">
         <v>96</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -19412,19 +19363,19 @@
         <v>75</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G76" s="15">
         <v>96</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -19438,19 +19389,19 @@
         <v>76</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>695</v>
+        <v>738</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G77" s="15">
         <v>96</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -19464,19 +19415,19 @@
         <v>77</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G78" s="15">
         <v>96</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -19490,19 +19441,19 @@
         <v>78</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G79" s="15">
         <v>96</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -19516,19 +19467,19 @@
         <v>79</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G80" s="15">
         <v>96</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -19542,19 +19493,19 @@
         <v>80</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G81" s="15">
         <v>96</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -19568,19 +19519,19 @@
         <v>81</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G82" s="15">
         <v>96</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -19594,19 +19545,19 @@
         <v>82</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G83" s="15">
         <v>96</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -19620,19 +19571,19 @@
         <v>83</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="G84" s="15">
         <v>96</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -19649,16 +19600,16 @@
         <v>659</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G85" s="15">
         <v>97</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>742</v>
+        <v>681</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -19672,19 +19623,19 @@
         <v>85</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G86" s="15">
         <v>97</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>742</v>
+        <v>681</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -19698,19 +19649,19 @@
         <v>86</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G87" s="15">
         <v>97</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>742</v>
+        <v>681</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -19724,19 +19675,19 @@
         <v>87</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G88" s="15">
         <v>97</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>742</v>
+        <v>681</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -19750,19 +19701,19 @@
         <v>88</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G89" s="15">
         <v>97</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>742</v>
+        <v>681</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -19779,16 +19730,16 @@
         <v>659</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G90" s="15">
         <v>98</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -19802,19 +19753,19 @@
         <v>90</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G91" s="15">
         <v>98</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -19828,19 +19779,19 @@
         <v>91</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G92" s="15">
         <v>98</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -19854,19 +19805,19 @@
         <v>92</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G93" s="15">
         <v>98</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -19880,19 +19831,19 @@
         <v>93</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G94" s="15">
         <v>98</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -19906,19 +19857,19 @@
         <v>94</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>741</v>
+        <v>216</v>
       </c>
       <c r="G95" s="15">
         <v>98</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -19935,16 +19886,16 @@
         <v>659</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G96" s="15">
         <v>99</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -19958,19 +19909,19 @@
         <v>96</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G97" s="15">
         <v>99</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -19984,19 +19935,19 @@
         <v>97</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G98" s="15">
         <v>99</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -20010,19 +19961,19 @@
         <v>98</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G99" s="15">
         <v>99</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -20036,19 +19987,19 @@
         <v>99</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G100" s="15">
         <v>99</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -20062,19 +20013,19 @@
         <v>100</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G101" s="15">
         <v>99</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -20088,19 +20039,19 @@
         <v>101</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="G102" s="15">
         <v>99</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -20114,19 +20065,19 @@
         <v>102</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="G103" s="15">
         <v>99</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -20143,16 +20094,16 @@
         <v>659</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G104" s="15">
         <v>100</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -20166,19 +20117,19 @@
         <v>104</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G105" s="15">
         <v>100</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -20192,19 +20143,19 @@
         <v>105</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G106" s="15">
         <v>100</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -20218,19 +20169,19 @@
         <v>106</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G107" s="15">
         <v>100</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -20244,19 +20195,19 @@
         <v>107</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G108" s="15">
         <v>100</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -20270,19 +20221,19 @@
         <v>108</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G109" s="15">
         <v>100</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -20296,19 +20247,19 @@
         <v>109</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>752</v>
+        <v>305</v>
       </c>
       <c r="G110" s="15">
         <v>100</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -20322,19 +20273,19 @@
         <v>110</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="G111" s="15">
         <v>100</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -20348,19 +20299,19 @@
         <v>111</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="G112" s="15">
         <v>100</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -20377,16 +20328,16 @@
         <v>659</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G113" s="15">
         <v>101</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -20400,19 +20351,19 @@
         <v>113</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G114" s="15">
         <v>101</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -20426,19 +20377,19 @@
         <v>114</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G115" s="15">
         <v>101</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -20452,19 +20403,19 @@
         <v>115</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G116" s="15">
         <v>101</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -20478,19 +20429,19 @@
         <v>116</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G117" s="15">
         <v>101</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -20504,19 +20455,19 @@
         <v>117</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G118" s="15">
         <v>101</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -20530,19 +20481,19 @@
         <v>118</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G119" s="15">
         <v>101</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -20556,19 +20507,19 @@
         <v>119</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>685</v>
+        <v>860</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>774</v>
+        <v>301</v>
       </c>
       <c r="G120" s="15">
         <v>101</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -20585,16 +20536,16 @@
         <v>659</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G121" s="15">
         <v>102</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -20608,19 +20559,19 @@
         <v>121</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G122" s="15">
         <v>102</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -20634,19 +20585,19 @@
         <v>122</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G123" s="15">
         <v>102</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -20660,19 +20611,19 @@
         <v>123</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G124" s="15">
         <v>102</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -20686,19 +20637,19 @@
         <v>124</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G125" s="15">
         <v>102</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -20712,19 +20663,19 @@
         <v>125</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G126" s="15">
         <v>102</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -20738,19 +20689,19 @@
         <v>126</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="G127" s="15">
         <v>102</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -20764,19 +20715,19 @@
         <v>127</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>685</v>
+        <v>860</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>774</v>
+        <v>301</v>
       </c>
       <c r="G128" s="15">
         <v>102</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -20793,16 +20744,16 @@
         <v>659</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G129" s="15">
         <v>103</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>780</v>
+        <v>687</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -20816,19 +20767,19 @@
         <v>129</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G130" s="15">
         <v>103</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>780</v>
+        <v>687</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -20842,19 +20793,19 @@
         <v>130</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G131" s="15">
         <v>103</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>780</v>
+        <v>687</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -20868,19 +20819,19 @@
         <v>131</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G132" s="15">
         <v>103</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>780</v>
+        <v>687</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -20894,19 +20845,19 @@
         <v>132</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G133" s="15">
         <v>103</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>780</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -20920,19 +20871,19 @@
         <v>133</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G134" s="15">
         <v>103</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>780</v>
+        <v>687</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -20946,19 +20897,19 @@
         <v>134</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G135" s="15">
         <v>103</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>780</v>
+        <v>687</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -20975,16 +20926,16 @@
         <v>659</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G136" s="15">
         <v>104</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -20998,19 +20949,19 @@
         <v>136</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G137" s="15">
         <v>104</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -21024,19 +20975,19 @@
         <v>137</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G138" s="15">
         <v>104</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -21050,19 +21001,19 @@
         <v>138</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G139" s="15">
         <v>104</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -21076,19 +21027,19 @@
         <v>139</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G140" s="15">
         <v>104</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -21102,19 +21053,19 @@
         <v>140</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G141" s="15">
         <v>104</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -21128,19 +21079,19 @@
         <v>141</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>779</v>
+        <v>304</v>
       </c>
       <c r="G142" s="15">
         <v>104</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -21157,16 +21108,16 @@
         <v>659</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G143" s="15">
         <v>105</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -21180,19 +21131,19 @@
         <v>143</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G144" s="15">
         <v>105</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -21206,19 +21157,19 @@
         <v>144</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G145" s="15">
         <v>105</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -21232,19 +21183,19 @@
         <v>145</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G146" s="15">
         <v>105</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -21258,19 +21209,19 @@
         <v>146</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G147" s="15">
         <v>105</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -21284,19 +21235,19 @@
         <v>147</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G148" s="15">
         <v>105</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -21310,19 +21261,19 @@
         <v>148</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G149" s="15">
         <v>105</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -21336,19 +21287,19 @@
         <v>149</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G150" s="15">
         <v>105</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -21362,19 +21313,19 @@
         <v>150</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>794</v>
+        <v>222</v>
       </c>
       <c r="G151" s="15">
         <v>105</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -21388,19 +21339,19 @@
         <v>151</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>794</v>
+        <v>222</v>
       </c>
       <c r="G152" s="15">
         <v>105</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>789</v>
+        <v>689</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -21417,16 +21368,16 @@
         <v>659</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G153" s="15">
         <v>106</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -21440,19 +21391,19 @@
         <v>153</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G154" s="15">
         <v>106</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -21466,19 +21417,19 @@
         <v>154</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G155" s="15">
         <v>106</v>
       </c>
       <c r="H155" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -21492,19 +21443,19 @@
         <v>155</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G156" s="15">
         <v>106</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -21518,19 +21469,19 @@
         <v>156</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G157" s="15">
         <v>106</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -21544,19 +21495,19 @@
         <v>157</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G158" s="15">
         <v>106</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -21570,19 +21521,19 @@
         <v>158</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G159" s="15">
         <v>106</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -21596,19 +21547,19 @@
         <v>159</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>788</v>
+        <v>211</v>
       </c>
       <c r="G160" s="15">
         <v>106</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -21622,19 +21573,19 @@
         <v>160</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>794</v>
+        <v>222</v>
       </c>
       <c r="G161" s="15">
         <v>106</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -21648,19 +21599,19 @@
         <v>161</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>794</v>
+        <v>222</v>
       </c>
       <c r="G162" s="15">
         <v>106</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>796</v>
+        <v>690</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -21677,16 +21628,16 @@
         <v>659</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G163" s="15">
         <v>107</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>804</v>
+        <v>691</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -21700,19 +21651,19 @@
         <v>163</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G164" s="15">
         <v>107</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>804</v>
+        <v>691</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -21726,19 +21677,19 @@
         <v>164</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G165" s="15">
         <v>107</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>804</v>
+        <v>691</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -21752,19 +21703,19 @@
         <v>165</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G166" s="15">
         <v>107</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>804</v>
+        <v>691</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -21778,19 +21729,19 @@
         <v>166</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G167" s="15">
         <v>107</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>804</v>
+        <v>691</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -21807,16 +21758,16 @@
         <v>659</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G168" s="15">
         <v>108</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>806</v>
+        <v>692</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -21830,19 +21781,19 @@
         <v>168</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G169" s="15">
         <v>108</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>806</v>
+        <v>692</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -21856,19 +21807,19 @@
         <v>169</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G170" s="15">
         <v>108</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>806</v>
+        <v>692</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -21882,19 +21833,19 @@
         <v>170</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G171" s="15">
         <v>108</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>806</v>
+        <v>692</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -21908,19 +21859,19 @@
         <v>171</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>803</v>
+        <v>539</v>
       </c>
       <c r="G172" s="15">
         <v>108</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>806</v>
+        <v>692</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -21937,16 +21888,16 @@
         <v>659</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G173" s="15">
         <v>109</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -21960,19 +21911,19 @@
         <v>173</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G174" s="15">
         <v>109</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -21986,19 +21937,19 @@
         <v>174</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G175" s="15">
         <v>109</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -22012,19 +21963,19 @@
         <v>175</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G176" s="15">
         <v>109</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -22038,19 +21989,19 @@
         <v>176</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G177" s="15">
         <v>109</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -22064,19 +22015,19 @@
         <v>177</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G178" s="15">
         <v>109</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -22090,19 +22041,19 @@
         <v>178</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G179" s="15">
         <v>109</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -22116,19 +22067,19 @@
         <v>179</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G180" s="15">
         <v>109</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -22142,19 +22093,19 @@
         <v>180</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G181" s="15">
         <v>109</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -22171,16 +22122,16 @@
         <v>659</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G182" s="15">
         <v>110</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -22194,19 +22145,19 @@
         <v>182</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G183" s="15">
         <v>110</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -22220,19 +22171,19 @@
         <v>183</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G184" s="15">
         <v>110</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -22246,19 +22197,19 @@
         <v>184</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G185" s="15">
         <v>110</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -22272,19 +22223,19 @@
         <v>185</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G186" s="15">
         <v>110</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -22298,19 +22249,19 @@
         <v>186</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>711</v>
+        <v>749</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G187" s="15">
         <v>110</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -22324,19 +22275,19 @@
         <v>187</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G188" s="15">
         <v>110</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -22350,19 +22301,19 @@
         <v>188</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="G189" s="15">
         <v>110</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -22379,16 +22330,16 @@
         <v>659</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G190" s="15">
         <v>111</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>824</v>
+        <v>694</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -22402,19 +22353,19 @@
         <v>190</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G191" s="15">
         <v>111</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>824</v>
+        <v>694</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -22428,19 +22379,19 @@
         <v>191</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G192" s="15">
         <v>111</v>
       </c>
       <c r="H192" s="13" t="s">
-        <v>824</v>
+        <v>694</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -22454,19 +22405,19 @@
         <v>192</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G193" s="15">
         <v>111</v>
       </c>
       <c r="H193" s="13" t="s">
-        <v>824</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -22483,16 +22434,16 @@
         <v>659</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>673</v>
+        <v>727</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G194" s="15">
         <v>112</v>
       </c>
       <c r="H194" s="13" t="s">
-        <v>870</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -22506,19 +22457,19 @@
         <v>194</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G195" s="15">
         <v>112</v>
       </c>
       <c r="H195" s="13" t="s">
-        <v>870</v>
+        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -22532,19 +22483,19 @@
         <v>195</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G196" s="15">
         <v>112</v>
       </c>
       <c r="H196" s="13" t="s">
-        <v>870</v>
+        <v>704</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -22558,19 +22509,19 @@
         <v>196</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G197" s="15">
         <v>112</v>
       </c>
       <c r="H197" s="13" t="s">
-        <v>870</v>
+        <v>704</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -22584,19 +22535,19 @@
         <v>197</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>823</v>
+        <v>225</v>
       </c>
       <c r="G198" s="15">
         <v>112</v>
       </c>
       <c r="H198" s="13" t="s">
-        <v>870</v>
+        <v>704</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -22613,16 +22564,16 @@
         <v>659</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>687</v>
+        <v>734</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>831</v>
+        <v>219</v>
       </c>
       <c r="G199" s="15">
         <v>113</v>
       </c>
       <c r="H199" s="13" t="s">
-        <v>832</v>
+        <v>695</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -22636,19 +22587,19 @@
         <v>199</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>831</v>
+        <v>219</v>
       </c>
       <c r="G200" s="15">
         <v>113</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>832</v>
+        <v>695</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -22662,19 +22613,19 @@
         <v>200</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>831</v>
+        <v>219</v>
       </c>
       <c r="G201" s="15">
         <v>113</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>832</v>
+        <v>695</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -22688,19 +22639,19 @@
         <v>201</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>831</v>
+        <v>219</v>
       </c>
       <c r="G202" s="15">
         <v>113</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>832</v>
+        <v>695</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -22717,16 +22668,16 @@
         <v>659</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>831</v>
+        <v>219</v>
       </c>
       <c r="G203" s="15">
         <v>114</v>
       </c>
       <c r="H203" s="13" t="s">
-        <v>837</v>
+        <v>696</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -22740,19 +22691,19 @@
         <v>203</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>831</v>
+        <v>219</v>
       </c>
       <c r="G204" s="15">
         <v>114</v>
       </c>
       <c r="H204" s="13" t="s">
-        <v>837</v>
+        <v>696</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -22766,19 +22717,19 @@
         <v>204</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>831</v>
+        <v>219</v>
       </c>
       <c r="G205" s="15">
         <v>114</v>
       </c>
       <c r="H205" s="13" t="s">
-        <v>837</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -22792,19 +22743,19 @@
         <v>205</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>831</v>
+        <v>219</v>
       </c>
       <c r="G206" s="15">
         <v>114</v>
       </c>
       <c r="H206" s="13" t="s">
-        <v>837</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -22821,16 +22772,16 @@
         <v>659</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G207" s="15">
         <v>115</v>
       </c>
       <c r="H207" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -22844,19 +22795,19 @@
         <v>207</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G208" s="15">
         <v>115</v>
       </c>
       <c r="H208" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -22870,19 +22821,19 @@
         <v>208</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G209" s="15">
         <v>115</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -22896,19 +22847,19 @@
         <v>209</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G210" s="15">
         <v>115</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -22922,19 +22873,19 @@
         <v>210</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G211" s="15">
         <v>115</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -22948,19 +22899,19 @@
         <v>211</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G212" s="15">
         <v>115</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -22974,19 +22925,19 @@
         <v>212</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G213" s="15">
         <v>115</v>
       </c>
       <c r="H213" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -23000,19 +22951,19 @@
         <v>213</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G214" s="15">
         <v>115</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -23026,19 +22977,19 @@
         <v>214</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G215" s="15">
         <v>115</v>
       </c>
       <c r="H215" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -23052,19 +23003,19 @@
         <v>215</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>844</v>
+        <v>716</v>
       </c>
       <c r="G216" s="15">
         <v>115</v>
       </c>
       <c r="H216" s="13" t="s">
-        <v>871</v>
+        <v>705</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -23081,16 +23032,16 @@
         <v>659</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G217" s="16">
         <v>116</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>846</v>
+        <v>697</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -23104,19 +23055,19 @@
         <v>217</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>847</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G218" s="15">
         <v>116</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>846</v>
+        <v>697</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -23130,19 +23081,19 @@
         <v>218</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>848</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G219" s="15">
         <v>116</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>846</v>
+        <v>697</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -23156,19 +23107,19 @@
         <v>219</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>849</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>850</v>
+        <v>717</v>
       </c>
       <c r="G220" s="15">
         <v>116</v>
       </c>
       <c r="H220" s="13" t="s">
-        <v>846</v>
+        <v>697</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -23182,19 +23133,19 @@
         <v>220</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G221" s="15">
         <v>116</v>
       </c>
       <c r="H221" s="13" t="s">
-        <v>846</v>
+        <v>697</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -23208,19 +23159,19 @@
         <v>221</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G222" s="16">
         <v>116</v>
       </c>
       <c r="H222" s="13" t="s">
-        <v>846</v>
+        <v>697</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -23234,19 +23185,19 @@
         <v>222</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G223" s="16">
         <v>116</v>
       </c>
       <c r="H223" s="13" t="s">
-        <v>846</v>
+        <v>697</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -23260,19 +23211,19 @@
         <v>223</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="G224" s="16">
         <v>116</v>
       </c>
       <c r="H224" s="13" t="s">
-        <v>846</v>
+        <v>697</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -23289,16 +23240,16 @@
         <v>659</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G225" s="16">
         <v>117</v>
       </c>
       <c r="H225" s="13" t="s">
-        <v>855</v>
+        <v>699</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -23312,19 +23263,19 @@
         <v>225</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G226" s="16">
         <v>117</v>
       </c>
       <c r="H226" s="13" t="s">
-        <v>855</v>
+        <v>699</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -23338,19 +23289,19 @@
         <v>226</v>
       </c>
       <c r="D227" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E227" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G227" s="16">
         <v>117</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>855</v>
+        <v>699</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -23364,19 +23315,19 @@
         <v>227</v>
       </c>
       <c r="D228" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E228" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G228" s="16">
         <v>117</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>855</v>
+        <v>699</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -23390,19 +23341,19 @@
         <v>228</v>
       </c>
       <c r="D229" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E229" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G229" s="16">
         <v>117</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>855</v>
+        <v>699</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -23416,19 +23367,19 @@
         <v>229</v>
       </c>
       <c r="D230" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E230" t="s">
+        <v>671</v>
+      </c>
+      <c r="F230" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="G230" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="H230" s="13" t="s">
         <v>699</v>
-      </c>
-      <c r="F230" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="G230" s="16" t="s">
-        <v>854</v>
-      </c>
-      <c r="H230" s="13" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -23442,19 +23393,19 @@
         <v>230</v>
       </c>
       <c r="D231" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E231" t="s">
+        <v>671</v>
+      </c>
+      <c r="F231" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="G231" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="H231" s="13" t="s">
         <v>699</v>
-      </c>
-      <c r="F231" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>854</v>
-      </c>
-      <c r="H231" s="13" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -23468,19 +23419,19 @@
         <v>231</v>
       </c>
       <c r="D232" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E232" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G232" s="15">
         <v>117</v>
       </c>
       <c r="H232" s="13" t="s">
-        <v>855</v>
+        <v>699</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -23494,19 +23445,19 @@
         <v>232</v>
       </c>
       <c r="D233" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E233" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>860</v>
+        <v>714</v>
       </c>
       <c r="G233" s="15">
         <v>117</v>
       </c>
       <c r="H233" s="13" t="s">
-        <v>855</v>
+        <v>699</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -23523,16 +23474,16 @@
         <v>659</v>
       </c>
       <c r="E234" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G234" s="15">
         <v>118</v>
       </c>
       <c r="H234" s="13" t="s">
-        <v>861</v>
+        <v>700</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -23546,19 +23497,19 @@
         <v>234</v>
       </c>
       <c r="D235" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E235" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G235" s="15">
         <v>118</v>
       </c>
       <c r="H235" s="13" t="s">
-        <v>861</v>
+        <v>700</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -23572,19 +23523,19 @@
         <v>235</v>
       </c>
       <c r="D236" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E236" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G236" s="15">
         <v>118</v>
       </c>
       <c r="H236" s="13" t="s">
-        <v>861</v>
+        <v>700</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -23598,19 +23549,19 @@
         <v>236</v>
       </c>
       <c r="D237" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E237" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G237" s="15">
         <v>118</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>861</v>
+        <v>700</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -23624,19 +23575,19 @@
         <v>237</v>
       </c>
       <c r="D238" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E238" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G238" s="15">
         <v>118</v>
       </c>
       <c r="H238" s="13" t="s">
-        <v>861</v>
+        <v>700</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -23650,19 +23601,19 @@
         <v>238</v>
       </c>
       <c r="D239" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E239" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>853</v>
+        <v>561</v>
       </c>
       <c r="G239" s="15">
         <v>118</v>
       </c>
       <c r="H239" s="13" t="s">
-        <v>861</v>
+        <v>700</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -23676,19 +23627,19 @@
         <v>239</v>
       </c>
       <c r="D240" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E240" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>866</v>
+        <v>715</v>
       </c>
       <c r="G240" s="15">
         <v>118</v>
       </c>
       <c r="H240" s="13" t="s">
-        <v>861</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -23697,4 +23648,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D2347-DFB5-4342-9937-1660710AABF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>